--- a/Team-Data/2008-09/12-1-2008-09.xlsx
+++ b/Team-Data/2008-09/12-1-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -883,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.343</v>
+        <v>0.337</v>
       </c>
       <c r="O3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>10.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,25 +1005,25 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
         <v>20</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1032,40 +1032,40 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1196,10 +1196,10 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>24</v>
@@ -1208,10 +1208,10 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.471</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W5" t="n">
         <v>8.4</v>
@@ -1342,31 +1342,31 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1375,28 +1375,28 @@
         <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
@@ -1405,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1420,19 +1420,19 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.7</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1566,52 +1566,52 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA6" t="n">
         <v>12</v>
       </c>
-      <c r="BA6" t="n">
-        <v>13</v>
-      </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1739,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1757,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1903,19 +1903,19 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>24</v>
@@ -1945,10 +1945,10 @@
         <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -2085,13 +2085,13 @@
         <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
@@ -2100,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2121,10 +2121,10 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
@@ -2136,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>5</v>
@@ -2154,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
@@ -2267,13 +2267,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2282,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>27</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>25</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2470,22 +2470,22 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>9</v>
@@ -2631,7 +2631,7 @@
         <v>0.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2640,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
@@ -2658,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>25</v>
@@ -2700,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2837,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
@@ -2864,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
         <v>14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.929</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>88.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.466</v>
@@ -2944,61 +2944,61 @@
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="T14" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="X14" t="n">
         <v>6.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3016,25 +3016,25 @@
         <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
       </c>
       <c r="AM14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
         <v>11</v>
       </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>2</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -3359,7 +3359,7 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3374,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3422,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3493,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
@@ -3529,28 +3529,28 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3562,40 +3562,40 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>9</v>
       </c>
-      <c r="AP17" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>28</v>
@@ -3747,7 +3747,7 @@
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3756,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3792,13 +3792,13 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3905,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -3935,7 +3935,7 @@
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3956,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -4093,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4108,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4120,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4150,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
         <v>15</v>
@@ -4269,7 +4269,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4451,7 +4451,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4481,19 +4481,19 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>19</v>
@@ -4505,7 +4505,7 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4633,10 +4633,10 @@
         <v>6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
@@ -4696,19 +4696,19 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,10 +4815,10 @@
         <v>-0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4833,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
@@ -4869,7 +4869,7 @@
         <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4997,7 +4997,7 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
@@ -5009,7 +5009,7 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -5030,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5042,13 +5042,13 @@
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.706</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5161,25 +5161,25 @@
         <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5191,16 +5191,16 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5212,13 +5212,13 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5239,22 +5239,22 @@
         <v>17</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5430,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5543,7 +5543,7 @@
         <v>0.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5564,7 +5564,7 @@
         <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5597,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5725,7 +5725,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5761,7 +5761,7 @@
         <v>8</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>8</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>18</v>
@@ -5907,7 +5907,7 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5925,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5937,10 +5937,10 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -6089,13 +6089,13 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6122,7 +6122,7 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>

--- a/Team-Data/2008-09/12-1-2008-09.xlsx
+++ b/Team-Data/2008-09/12-1-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -780,10 +847,10 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>16</v>
@@ -795,10 +862,10 @@
         <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>19</v>
@@ -810,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
         <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.466</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.349</v>
+        <v>0.337</v>
       </c>
       <c r="O3" t="n">
         <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.2</v>
+        <v>98.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,64 +1008,64 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP3" t="n">
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.353</v>
+        <v>0.313</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="J4" t="n">
-        <v>74.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="O4" t="n">
         <v>19.4</v>
@@ -1069,7 +1136,7 @@
         <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
@@ -1081,37 +1148,37 @@
         <v>38.5</v>
       </c>
       <c r="U4" t="n">
-        <v>17.6</v>
+        <v>16.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.3</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,46 +1196,46 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
         <v>19</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>29</v>
       </c>
       <c r="AT4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU4" t="n">
         <v>29</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>28</v>
       </c>
       <c r="AV4" t="n">
         <v>22</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.471</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W5" t="n">
         <v>8.4</v>
@@ -1275,61 +1342,61 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
@@ -1338,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>24</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1353,20 +1420,20 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
       </c>
-      <c r="BB5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>23</v>
-      </c>
       <c r="BD5" t="n">
         <v>10</v>
       </c>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -1394,100 +1461,100 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.7</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1499,49 +1566,49 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
@@ -1669,10 +1736,10 @@
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1684,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1705,13 +1772,13 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>16</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1860,13 +1927,13 @@
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>17</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,10 +1948,10 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1899,7 +1966,7 @@
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2018,34 +2085,34 @@
         <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
         <v>16</v>
       </c>
       <c r="AM9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
@@ -2054,22 +2121,22 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="H10" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
         <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="O10" t="n">
-        <v>23.7</v>
+        <v>22.4</v>
       </c>
       <c r="P10" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.752</v>
+        <v>0.736</v>
       </c>
       <c r="R10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
@@ -2185,37 +2252,37 @@
         <v>7.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>106</v>
+        <v>104.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.3</v>
+        <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
         <v>24</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
         <v>3</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>4</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
@@ -2224,31 +2291,31 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
@@ -2263,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2403,34 +2470,34 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>26</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>0.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2573,16 +2640,16 @@
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
         <v>18</v>
@@ -2591,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
@@ -2618,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>25</v>
@@ -2627,16 +2694,16 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>28</v>
@@ -2770,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
         <v>14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.929</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>88.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.466</v>
@@ -2877,61 +2944,61 @@
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="T14" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="X14" t="n">
         <v>6.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,25 +3016,25 @@
         <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
       </c>
       <c r="AM14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AP14" t="n">
         <v>11</v>
       </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>2</v>
@@ -2979,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
@@ -2997,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3131,7 +3198,7 @@
         <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3146,13 +3213,13 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>16</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>10</v>
@@ -3176,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -3214,136 +3281,136 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.5</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
         <v>7.3</v>
       </c>
       <c r="M16" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.6</v>
+        <v>16.9</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.754</v>
+        <v>0.742</v>
       </c>
       <c r="R16" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="T16" t="n">
-        <v>38.9</v>
+        <v>38.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="V16" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC16" t="n">
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
         <v>4</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR16" t="n">
         <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
       </c>
       <c r="AT16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
@@ -3352,19 +3419,19 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>9</v>
       </c>
-      <c r="AY16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>16</v>
-      </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3426,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
@@ -3462,28 +3529,28 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3492,43 +3559,43 @@
         <v>27</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>9</v>
       </c>
-      <c r="AP17" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>28</v>
@@ -3537,13 +3604,13 @@
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -3578,118 +3645,118 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="H18" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>84.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.325</v>
       </c>
       <c r="O18" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P18" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="W18" t="n">
         <v>5.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="AA18" t="n">
         <v>20.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO18" t="n">
         <v>21</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3698,37 +3765,37 @@
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3850,25 +3917,25 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3889,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4035,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4053,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4071,7 +4138,7 @@
         <v>30</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4086,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -4235,7 +4302,7 @@
         <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
@@ -4253,13 +4320,13 @@
         <v>6</v>
       </c>
       <c r="AU21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4396,7 +4463,7 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>28</v>
@@ -4414,22 +4481,22 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT22" t="n">
         <v>15</v>
@@ -4438,7 +4505,7 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4453,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.722</v>
+        <v>0.765</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J23" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M23" t="n">
         <v>24.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.338</v>
       </c>
       <c r="O23" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="P23" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>4</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
@@ -4611,16 +4678,16 @@
         <v>21</v>
       </c>
       <c r="AS23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>18</v>
@@ -4629,19 +4696,19 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4760,16 +4827,16 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4778,7 +4845,7 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -4799,19 +4866,19 @@
         <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
@@ -4945,7 +5012,7 @@
         <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4963,25 +5030,25 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4993,13 +5060,13 @@
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.706</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5094,46 +5161,46 @@
         <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5145,13 +5212,13 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5181,13 +5248,13 @@
         <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -5297,13 +5364,13 @@
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>8</v>
@@ -5318,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5342,7 +5409,7 @@
         <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
@@ -5360,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>0.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5488,16 +5555,16 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5527,10 +5594,10 @@
         <v>25</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5670,10 +5737,10 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>24</v>
@@ -5694,7 +5761,7 @@
         <v>8</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5852,13 +5919,13 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,10 +5937,10 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -5900,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5912,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6055,16 +6122,16 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-1-2008-09</t>
+          <t>2008-12-01</t>
         </is>
       </c>
     </row>
